--- a/data/gpr_settings.xlsx
+++ b/data/gpr_settings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphael/Documents/GitHub/GeoPressureTemplate/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphael/Library/CloudStorage/Box-Box/Val-Piora-Wheatear/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52A1AAC-00FB-9A4B-8C2C-FEE87180D196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983799D7-5ABD-CA43-8B85-91B8381BB2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="27660" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tracks" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
   <si>
     <t>Color</t>
   </si>
@@ -120,26 +120,110 @@
     <t>thr_dur</t>
   </si>
   <si>
-    <t>18LX</t>
-  </si>
-  <si>
-    <t>Great Reed Warbler</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
     <t>thr_prob_percentile</t>
   </si>
   <si>
     <t>thr_gs</t>
+  </si>
+  <si>
+    <t>24EA</t>
+  </si>
+  <si>
+    <t>24EP</t>
+  </si>
+  <si>
+    <t>24DK</t>
+  </si>
+  <si>
+    <t>24TJ</t>
+  </si>
+  <si>
+    <t>16IQ</t>
+  </si>
+  <si>
+    <t>16JL</t>
+  </si>
+  <si>
+    <t>16JB</t>
+  </si>
+  <si>
+    <t>16IT</t>
+  </si>
+  <si>
+    <t>26IL</t>
+  </si>
+  <si>
+    <t>20TJ</t>
+  </si>
+  <si>
+    <t>26IM</t>
+  </si>
+  <si>
+    <t>20TZ</t>
+  </si>
+  <si>
+    <t>26HS</t>
+  </si>
+  <si>
+    <t>24IS</t>
+  </si>
+  <si>
+    <t>LW59569</t>
+  </si>
+  <si>
+    <t>LW59578</t>
+  </si>
+  <si>
+    <t>LW59549</t>
+  </si>
+  <si>
+    <t>N566640</t>
+  </si>
+  <si>
+    <t>N566642</t>
+  </si>
+  <si>
+    <t>N566669</t>
+  </si>
+  <si>
+    <t>N566638</t>
+  </si>
+  <si>
+    <t>N566945</t>
+  </si>
+  <si>
+    <t>N566688</t>
+  </si>
+  <si>
+    <t>N643042</t>
+  </si>
+  <si>
+    <t>N566965</t>
+  </si>
+  <si>
+    <t>N643031</t>
+  </si>
+  <si>
+    <t>N588304</t>
+  </si>
+  <si>
+    <t>Oenanthe oenanthe</t>
+  </si>
+  <si>
+    <t>Northern wheatear</t>
+  </si>
+  <si>
+    <t>prob_map_s_calib</t>
+  </si>
+  <si>
+    <t>kernel_adjust</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -287,15 +371,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFAD0000"/>
-      <name val="Var(--bs-font-monospace)"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -640,13 +720,12 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -693,18 +772,15 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -732,6 +808,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -781,13 +863,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}" name="Table1" displayName="Table1" ref="A1:AF2" totalsRowShown="0">
-  <autoFilter ref="A1:AF2" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}"/>
-  <tableColumns count="32">
-    <tableColumn id="3" xr3:uid="{0E08F938-60A9-C640-A060-C64653A1D0F0}" name="gdl_id" dataDxfId="13" dataCellStyle="Normal_Feuil1"/>
-    <tableColumn id="38" xr3:uid="{5F80A124-B607-6D47-A8B2-B6EBC16D0EC2}" name="crop_start"/>
-    <tableColumn id="39" xr3:uid="{C4B8ED7B-88BE-D143-A9A5-6213689753CA}" name="crop_end"/>
-    <tableColumn id="6" xr3:uid="{22680B6F-F907-FD43-BF6C-2E3789C9C356}" name="thr_dur" dataDxfId="12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}" name="Table1" displayName="Table1" ref="A1:AG15" totalsRowShown="0">
+  <autoFilter ref="A1:AG15" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG15">
+    <sortCondition ref="U1:U15"/>
+  </sortState>
+  <tableColumns count="33">
+    <tableColumn id="3" xr3:uid="{0E08F938-60A9-C640-A060-C64653A1D0F0}" name="gdl_id" dataDxfId="14" dataCellStyle="Normal_Feuil1"/>
+    <tableColumn id="38" xr3:uid="{5F80A124-B607-6D47-A8B2-B6EBC16D0EC2}" name="crop_start" dataDxfId="13"/>
+    <tableColumn id="39" xr3:uid="{C4B8ED7B-88BE-D143-A9A5-6213689753CA}" name="crop_end" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{22680B6F-F907-FD43-BF6C-2E3789C9C356}" name="thr_dur" dataDxfId="11"/>
     <tableColumn id="43" xr3:uid="{0ACC25F8-5611-FA4F-B49C-6E30F1D95C08}" name="extent_N"/>
     <tableColumn id="44" xr3:uid="{7341665D-D68F-3E48-95CE-8E270ED9FA6A}" name="extent_W"/>
     <tableColumn id="45" xr3:uid="{18F1D038-2D60-FF49-8711-16897DCC1A1A}" name="extent_S"/>
@@ -796,21 +881,22 @@
     <tableColumn id="48" xr3:uid="{79A194EF-E679-C24C-BE38-E97569E976AA}" name="map_max_sample"/>
     <tableColumn id="49" xr3:uid="{A0BE4E97-52EA-C245-B384-C2C954FDB62B}" name="map_margin"/>
     <tableColumn id="50" xr3:uid="{98646B4B-4B26-0A4C-A7C3-1140DBCABB7B}" name="prob_map_s"/>
+    <tableColumn id="8" xr3:uid="{A429AD11-738F-D943-AE4F-5D30524D8A39}" name="prob_map_s_calib"/>
     <tableColumn id="51" xr3:uid="{AD7A8CAB-A777-7C4D-A6A2-601A4074FBB2}" name="prob_map_thr"/>
-    <tableColumn id="42" xr3:uid="{BF18370D-EF9D-424D-B4AE-3A176A692D5A}" name="shift_k" dataDxfId="11"/>
+    <tableColumn id="42" xr3:uid="{BF18370D-EF9D-424D-B4AE-3A176A692D5A}" name="shift_k" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{960A618D-07F5-694F-BDED-EEB0A7C3BB9A}" name="kernel_adjust"/>
     <tableColumn id="9" xr3:uid="{0D248294-1CA3-E44D-A900-569DE950BA49}" name="calib_lon"/>
     <tableColumn id="10" xr3:uid="{50C46AB1-CB9A-B84C-B41F-D6DF90BD8412}" name="calib_lat"/>
-    <tableColumn id="19" xr3:uid="{F555DC9A-9393-234D-92AB-138553DAA03D}" name="calib_1_start" dataDxfId="10"/>
-    <tableColumn id="20" xr3:uid="{F0057B32-84F6-0D4E-B0D3-B8591BCF0A33}" name="calib_1_end" dataDxfId="9"/>
-    <tableColumn id="21" xr3:uid="{72C1CC5C-0A2A-3140-9A33-1BAC20CBDE1B}" name="calib_2_start" dataDxfId="8"/>
-    <tableColumn id="22" xr3:uid="{1E9B142A-92EB-D647-BB56-ADFB8F3B1DE9}" name="calib_2_end" dataDxfId="7"/>
-    <tableColumn id="40" xr3:uid="{ABB1AA27-3007-954E-BFD9-D15B5759E520}" name="calib_2_lon" dataDxfId="6"/>
-    <tableColumn id="41" xr3:uid="{5A6DF468-93CA-8E49-B529-24F965EC5A68}" name="calib_2_lat" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{C1C8E7B8-04FB-6241-9466-61A298BC202A}" name="prob_light_w" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{F555DC9A-9393-234D-92AB-138553DAA03D}" name="calib_1_start" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{F0057B32-84F6-0D4E-B0D3-B8591BCF0A33}" name="calib_1_end" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{72C1CC5C-0A2A-3140-9A33-1BAC20CBDE1B}" name="calib_2_start" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{1E9B142A-92EB-D647-BB56-ADFB8F3B1DE9}" name="calib_2_end" dataDxfId="6"/>
+    <tableColumn id="40" xr3:uid="{ABB1AA27-3007-954E-BFD9-D15B5759E520}" name="calib_2_lon" dataDxfId="5"/>
+    <tableColumn id="41" xr3:uid="{5A6DF468-93CA-8E49-B529-24F965EC5A68}" name="calib_2_lat" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{C1C8E7B8-04FB-6241-9466-61A298BC202A}" name="prob_light_w" dataDxfId="3"/>
     <tableColumn id="1" xr3:uid="{CA9C149A-C070-ED44-9095-795932D8BA41}" name="thr_prob_percentile" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{74B13C9B-EDD7-A24E-A7E5-146255BCE559}" name="thr_gs" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{7EF3D097-7731-F44F-851D-98DEC75B75D2}" name="Column3" dataDxfId="0"/>
-    <tableColumn id="32" xr3:uid="{8FB298A1-7B27-ED49-9E23-106210114304}" name="RingNo" dataDxfId="3"/>
+    <tableColumn id="32" xr3:uid="{8FB298A1-7B27-ED49-9E23-106210114304}" name="RingNo" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{437D6807-140D-EC48-A588-9CA0C70671A6}" name="scientific_name"/>
     <tableColumn id="5" xr3:uid="{E0EF373A-0600-B64D-81CD-63E6714931D7}" name="common_name"/>
     <tableColumn id="34" xr3:uid="{AAB4E28F-C2D5-A44D-A5CF-C6EA295E6EC5}" name="mass"/>
@@ -1118,34 +1204,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" customWidth="1"/>
-    <col min="16" max="16" width="18.83203125" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.1640625" customWidth="1"/>
-    <col min="20" max="20" width="14.1640625" customWidth="1"/>
-    <col min="21" max="26" width="17.33203125" customWidth="1"/>
-    <col min="28" max="28" width="17.33203125" customWidth="1"/>
-    <col min="29" max="29" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5" customWidth="1"/>
-    <col min="36" max="36" width="16.33203125" customWidth="1"/>
-    <col min="42" max="44" width="15.1640625" customWidth="1"/>
-    <col min="45" max="45" width="14.5" customWidth="1"/>
-    <col min="46" max="46" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="15.1640625" customWidth="1"/>
+    <col min="18" max="18" width="18.83203125" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.1640625" customWidth="1"/>
+    <col min="22" max="22" width="14.1640625" customWidth="1"/>
+    <col min="23" max="27" width="17.33203125" customWidth="1"/>
+    <col min="29" max="29" width="17.33203125" customWidth="1"/>
+    <col min="30" max="30" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5" customWidth="1"/>
+    <col min="37" max="37" width="16.33203125" customWidth="1"/>
+    <col min="43" max="45" width="15.1640625" customWidth="1"/>
+    <col min="46" max="46" width="14.5" customWidth="1"/>
+    <col min="47" max="47" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1183,90 +1272,93 @@
         <v>25</v>
       </c>
       <c r="M1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>27</v>
       </c>
-      <c r="X1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>33</v>
-      </c>
       <c r="Z1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>6</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1">
-        <v>42906</v>
+        <v>44026</v>
       </c>
       <c r="C2" s="1">
-        <v>43222</v>
-      </c>
-      <c r="D2" s="4">
-        <v>12</v>
+        <v>44344</v>
+      </c>
+      <c r="D2" s="3">
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2">
-        <v>-16</v>
+        <v>-18</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I2">
         <v>5</v>
@@ -1281,47 +1373,1131 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="N2">
+        <v>0.9</v>
+      </c>
+      <c r="O2">
         <v>0</v>
       </c>
-      <c r="O2">
-        <v>17.05</v>
-      </c>
       <c r="P2">
-        <v>48.9</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>42906</v>
-      </c>
-      <c r="R2" s="1">
-        <v>42952</v>
-      </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="Q2">
+        <v>8.7055030000000002</v>
+      </c>
+      <c r="R2">
+        <v>46.550758000000002</v>
+      </c>
+      <c r="S2" s="1">
+        <v>44026</v>
+      </c>
+      <c r="T2" s="1">
+        <v>44091</v>
+      </c>
+      <c r="U2" s="1">
+        <v>44319</v>
+      </c>
+      <c r="V2" s="1">
+        <v>44344</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="3">
         <v>0.1</v>
       </c>
-      <c r="X2" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="Y2" s="4">
+      <c r="Z2" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AA2" s="3">
         <v>120</v>
       </c>
-      <c r="Z2" s="4"/>
+      <c r="AB2" t="s">
+        <v>54</v>
+      </c>
       <c r="AC2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44026</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44377</v>
+      </c>
+      <c r="D3" s="3">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>51</v>
+      </c>
+      <c r="F3">
+        <v>-18</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>300</v>
+      </c>
+      <c r="K3">
         <v>30</v>
       </c>
-      <c r="AF2" s="2"/>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>0.9</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1.4</v>
+      </c>
+      <c r="Q3">
+        <v>8.7060300000000002</v>
+      </c>
+      <c r="R3">
+        <v>46.549204000000003</v>
+      </c>
+      <c r="S3" s="1">
+        <v>44026</v>
+      </c>
+      <c r="T3" s="1">
+        <v>44085</v>
+      </c>
+      <c r="U3" s="1">
+        <v>44324</v>
+      </c>
+      <c r="V3" s="1">
+        <v>44377</v>
+      </c>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>120</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="8" spans="1:32">
-      <c r="P8" s="3"/>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44019</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44370</v>
+      </c>
+      <c r="D4" s="3">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>51</v>
+      </c>
+      <c r="F4">
+        <v>-18</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>300</v>
+      </c>
+      <c r="K4">
+        <v>30</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>0.9</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1.4</v>
+      </c>
+      <c r="Q4">
+        <v>8.7117020000000007</v>
+      </c>
+      <c r="R4">
+        <v>46.553612999999999</v>
+      </c>
+      <c r="S4" s="1">
+        <v>44019</v>
+      </c>
+      <c r="T4" s="1">
+        <v>44091</v>
+      </c>
+      <c r="U4" s="1">
+        <v>44329</v>
+      </c>
+      <c r="V4" s="1">
+        <v>44370</v>
+      </c>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>120</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="13" spans="1:32">
-      <c r="H13" s="5"/>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43666</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43769.239583333336</v>
+      </c>
+      <c r="D5" s="3">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>51</v>
+      </c>
+      <c r="F5">
+        <v>-18</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>300</v>
+      </c>
+      <c r="K5">
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>0.9</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1.4</v>
+      </c>
+      <c r="Q5">
+        <v>6.96333</v>
+      </c>
+      <c r="R5">
+        <v>44.951770000000003</v>
+      </c>
+      <c r="S5" s="1">
+        <v>43666</v>
+      </c>
+      <c r="T5" s="1">
+        <v>43724</v>
+      </c>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>120</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG5" s="2"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43666</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43750.222222222219</v>
+      </c>
+      <c r="D6" s="3">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>51</v>
+      </c>
+      <c r="F6">
+        <v>-18</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>300</v>
+      </c>
+      <c r="K6">
+        <v>30</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>0.9</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1.4</v>
+      </c>
+      <c r="Q6">
+        <v>6.96333</v>
+      </c>
+      <c r="R6">
+        <v>44.951770000000003</v>
+      </c>
+      <c r="S6" s="1">
+        <v>43666</v>
+      </c>
+      <c r="T6" s="1">
+        <v>43720</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>120</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43666</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43725.743055555555</v>
+      </c>
+      <c r="D7" s="3">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>51</v>
+      </c>
+      <c r="F7">
+        <v>-18</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>300</v>
+      </c>
+      <c r="K7">
+        <v>30</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>0.9</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1.4</v>
+      </c>
+      <c r="Q7">
+        <v>6.9699499999999999</v>
+      </c>
+      <c r="R7">
+        <v>44.953440000000001</v>
+      </c>
+      <c r="S7" s="1">
+        <v>43666</v>
+      </c>
+      <c r="T7" s="1">
+        <v>43714</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>120</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44043</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44352</v>
+      </c>
+      <c r="D8" s="3">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>51</v>
+      </c>
+      <c r="F8">
+        <v>-18</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>300</v>
+      </c>
+      <c r="K8">
+        <v>30</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>0.9</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1.4</v>
+      </c>
+      <c r="Q8">
+        <v>6.9569460000000003</v>
+      </c>
+      <c r="R8">
+        <v>44.974710999999999</v>
+      </c>
+      <c r="S8" s="1">
+        <v>44043</v>
+      </c>
+      <c r="T8" s="1">
+        <v>44087</v>
+      </c>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>120</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1">
+        <v>42552</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42763.756944444445</v>
+      </c>
+      <c r="D9" s="3">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>51</v>
+      </c>
+      <c r="F9">
+        <v>-18</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>300</v>
+      </c>
+      <c r="K9">
+        <v>30</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>0.9</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1.4</v>
+      </c>
+      <c r="Q9">
+        <v>8.6836400000000005</v>
+      </c>
+      <c r="R9">
+        <v>46.542700000000004</v>
+      </c>
+      <c r="S9" s="1">
+        <v>42552</v>
+      </c>
+      <c r="T9" s="1">
+        <v>42626</v>
+      </c>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>120</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1">
+        <v>42552</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42686.833333333336</v>
+      </c>
+      <c r="D10" s="3">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>51</v>
+      </c>
+      <c r="F10">
+        <v>-18</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>300</v>
+      </c>
+      <c r="K10">
+        <v>30</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>0.9</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1.4</v>
+      </c>
+      <c r="Q10">
+        <v>8.6831499999999995</v>
+      </c>
+      <c r="R10">
+        <v>46.542630000000003</v>
+      </c>
+      <c r="S10" s="1">
+        <v>42552</v>
+      </c>
+      <c r="T10" s="1">
+        <v>42631</v>
+      </c>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>120</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1">
+        <v>42552</v>
+      </c>
+      <c r="C11" s="1">
+        <v>42641.673611111109</v>
+      </c>
+      <c r="D11" s="3">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>51</v>
+      </c>
+      <c r="F11">
+        <v>-18</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>300</v>
+      </c>
+      <c r="K11">
+        <v>30</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>0.9</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1.4</v>
+      </c>
+      <c r="Q11">
+        <v>8.7298899999999993</v>
+      </c>
+      <c r="R11">
+        <v>46.548409999999997</v>
+      </c>
+      <c r="S11" s="1">
+        <v>42552</v>
+      </c>
+      <c r="T11" s="1">
+        <v>42633</v>
+      </c>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>120</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1">
+        <v>42552</v>
+      </c>
+      <c r="C12" s="1">
+        <v>42647.628472222219</v>
+      </c>
+      <c r="D12" s="3">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>51</v>
+      </c>
+      <c r="F12">
+        <v>-18</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>16</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>300</v>
+      </c>
+      <c r="K12">
+        <v>30</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>0.9</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1.4</v>
+      </c>
+      <c r="Q12">
+        <v>8.6868200000000009</v>
+      </c>
+      <c r="R12">
+        <v>46.548490000000001</v>
+      </c>
+      <c r="S12" s="1">
+        <v>42552</v>
+      </c>
+      <c r="T12" s="1">
+        <v>42633</v>
+      </c>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>120</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43313</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43412.243055555555</v>
+      </c>
+      <c r="D13" s="3">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>51</v>
+      </c>
+      <c r="F13">
+        <v>-18</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>300</v>
+      </c>
+      <c r="K13">
+        <v>30</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>0.9</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1.4</v>
+      </c>
+      <c r="Q13">
+        <v>8.7033740000000002</v>
+      </c>
+      <c r="R13">
+        <v>46.550142999999998</v>
+      </c>
+      <c r="S13" s="1">
+        <v>43313</v>
+      </c>
+      <c r="T13" s="1">
+        <v>43354</v>
+      </c>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>120</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43313</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43361.690972222219</v>
+      </c>
+      <c r="D14" s="3">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>51</v>
+      </c>
+      <c r="F14">
+        <v>-18</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>16</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>300</v>
+      </c>
+      <c r="K14">
+        <v>30</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>0.9</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1.4</v>
+      </c>
+      <c r="Q14">
+        <v>8.6909840000000003</v>
+      </c>
+      <c r="R14">
+        <v>46.553140999999997</v>
+      </c>
+      <c r="S14" s="1">
+        <v>43313</v>
+      </c>
+      <c r="T14" s="1">
+        <v>43358</v>
+      </c>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>120</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43678</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43754.649305555555</v>
+      </c>
+      <c r="D15" s="3">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>51</v>
+      </c>
+      <c r="F15">
+        <v>-18</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>16</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>300</v>
+      </c>
+      <c r="K15">
+        <v>30</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>0.9</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1.4</v>
+      </c>
+      <c r="Q15">
+        <v>8.6922119999999996</v>
+      </c>
+      <c r="R15">
+        <v>46.554926999999999</v>
+      </c>
+      <c r="S15" s="1">
+        <v>43678</v>
+      </c>
+      <c r="T15" s="1">
+        <v>43724</v>
+      </c>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>120</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>

--- a/data/gpr_settings.xlsx
+++ b/data/gpr_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphael/Library/CloudStorage/Box-Box/Val-Piora-Wheatear/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983799D7-5ABD-CA43-8B85-91B8381BB2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBF8C9B-A96F-6041-AB98-F1045239812D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="500" windowWidth="27660" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1207,7 +1207,7 @@
   <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A8" sqref="A8:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/gpr_settings.xlsx
+++ b/data/gpr_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphael/Library/CloudStorage/Box-Box/Val-Piora-Wheatear/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBF8C9B-A96F-6041-AB98-F1045239812D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD6C653-9904-C24D-B34F-95E555B6F248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="27660" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="500" yWindow="500" windowWidth="27660" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tracks" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>Color</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>kernel_adjust</t>
+  </si>
+  <si>
+    <t>keep</t>
   </si>
 </sst>
 </file>
@@ -863,13 +866,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}" name="Table1" displayName="Table1" ref="A1:AG15" totalsRowShown="0">
-  <autoFilter ref="A1:AG15" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG15">
-    <sortCondition ref="U1:U15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}" name="Table1" displayName="Table1" ref="A1:AH15" totalsRowShown="0">
+  <autoFilter ref="A1:AH15" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH15">
+    <sortCondition ref="V1:V15"/>
   </sortState>
-  <tableColumns count="33">
+  <tableColumns count="34">
     <tableColumn id="3" xr3:uid="{0E08F938-60A9-C640-A060-C64653A1D0F0}" name="gdl_id" dataDxfId="14" dataCellStyle="Normal_Feuil1"/>
+    <tableColumn id="12" xr3:uid="{A35DC4F6-C589-EF4B-8615-0E1885154BE5}" name="keep"/>
     <tableColumn id="38" xr3:uid="{5F80A124-B607-6D47-A8B2-B6EBC16D0EC2}" name="crop_start" dataDxfId="13"/>
     <tableColumn id="39" xr3:uid="{C4B8ED7B-88BE-D143-A9A5-6213689753CA}" name="crop_end" dataDxfId="12"/>
     <tableColumn id="6" xr3:uid="{22680B6F-F907-FD43-BF6C-2E3789C9C356}" name="thr_dur" dataDxfId="11"/>
@@ -1204,1298 +1208,1343 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG15"/>
+  <dimension ref="A1:AH15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="15.1640625" customWidth="1"/>
-    <col min="18" max="18" width="18.83203125" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.1640625" customWidth="1"/>
-    <col min="22" max="22" width="14.1640625" customWidth="1"/>
-    <col min="23" max="27" width="17.33203125" customWidth="1"/>
-    <col min="29" max="29" width="17.33203125" customWidth="1"/>
-    <col min="30" max="30" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.5" customWidth="1"/>
-    <col min="37" max="37" width="16.33203125" customWidth="1"/>
-    <col min="43" max="45" width="15.1640625" customWidth="1"/>
-    <col min="46" max="46" width="14.5" customWidth="1"/>
-    <col min="47" max="47" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18" customWidth="1"/>
+    <col min="18" max="18" width="15.1640625" customWidth="1"/>
+    <col min="19" max="19" width="18.83203125" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.1640625" customWidth="1"/>
+    <col min="23" max="23" width="14.1640625" customWidth="1"/>
+    <col min="24" max="28" width="17.33203125" customWidth="1"/>
+    <col min="30" max="30" width="17.33203125" customWidth="1"/>
+    <col min="31" max="31" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.5" customWidth="1"/>
+    <col min="38" max="38" width="16.33203125" customWidth="1"/>
+    <col min="44" max="46" width="15.1640625" customWidth="1"/>
+    <col min="47" max="47" width="14.5" customWidth="1"/>
+    <col min="48" max="48" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>60</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>6</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1">
         <v>44026</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>44344</v>
       </c>
-      <c r="D2" s="3">
-        <v>24</v>
-      </c>
-      <c r="E2">
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>51</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-18</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>16</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>5</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>300</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>30</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2</v>
       </c>
-      <c r="N2">
-        <v>0.9</v>
-      </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>1.4</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>8.7055030000000002</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>46.550758000000002</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>44026</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>44091</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1">
         <v>44319</v>
       </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
         <v>44344</v>
       </c>
-      <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-      <c r="Y2" s="3">
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="3">
         <v>0.1</v>
       </c>
-      <c r="Z2" s="3">
-        <v>0.9</v>
-      </c>
       <c r="AA2" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AB2" s="3">
         <v>120</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
         <v>44026</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>44377</v>
       </c>
-      <c r="D3" s="3">
-        <v>24</v>
-      </c>
-      <c r="E3">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>51</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-18</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>16</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>300</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>30</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>2</v>
       </c>
-      <c r="N3">
-        <v>0.9</v>
-      </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>1.4</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>8.7060300000000002</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>46.549204000000003</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>44026</v>
       </c>
-      <c r="T3" s="1">
+      <c r="U3" s="1">
         <v>44085</v>
       </c>
-      <c r="U3" s="1">
+      <c r="V3" s="1">
         <v>44324</v>
       </c>
-      <c r="V3" s="1">
+      <c r="W3" s="1">
         <v>44377</v>
       </c>
-      <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-      <c r="Y3" s="3">
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="3">
         <v>0.1</v>
       </c>
-      <c r="Z3" s="3">
-        <v>0.9</v>
-      </c>
       <c r="AA3" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AB3" s="3">
         <v>120</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>52</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>58</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
         <v>44019</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>44370</v>
       </c>
-      <c r="D4" s="3">
-        <v>24</v>
-      </c>
-      <c r="E4">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>51</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-18</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>16</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>5</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>300</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>30</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>2</v>
       </c>
-      <c r="N4">
-        <v>0.9</v>
-      </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>1.4</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>8.7117020000000007</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>46.553612999999999</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <v>44019</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>44091</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <v>44329</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>44370</v>
       </c>
-      <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="3">
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="3">
         <v>0.1</v>
       </c>
-      <c r="Z4" s="3">
-        <v>0.9</v>
-      </c>
       <c r="AA4" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AB4" s="3">
         <v>120</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>56</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>58</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
         <v>43666</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>43769.239583333336</v>
       </c>
-      <c r="D5" s="3">
-        <v>24</v>
-      </c>
-      <c r="E5">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>51</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-18</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>16</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>5</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>300</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>30</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2</v>
       </c>
-      <c r="N5">
-        <v>0.9</v>
-      </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>1.4</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>6.96333</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>44.951770000000003</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <v>43666</v>
       </c>
-      <c r="T5" s="1">
+      <c r="U5" s="1">
         <v>43724</v>
       </c>
-      <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="3">
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="3">
         <v>0.1</v>
       </c>
-      <c r="Z5" s="3">
-        <v>0.9</v>
-      </c>
       <c r="AA5" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AB5" s="3">
         <v>120</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AC5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>58</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>59</v>
       </c>
-      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
         <v>43666</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>43750.222222222219</v>
       </c>
-      <c r="D6" s="3">
-        <v>24</v>
-      </c>
-      <c r="E6">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>51</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-18</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>16</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>300</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>30</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2</v>
       </c>
-      <c r="N6">
-        <v>0.9</v>
-      </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>1.4</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>6.96333</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>44.951770000000003</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <v>43666</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1">
         <v>43720</v>
       </c>
-      <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="3">
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="3">
         <v>0.1</v>
       </c>
-      <c r="Z6" s="3">
-        <v>0.9</v>
-      </c>
       <c r="AA6" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AB6" s="3">
         <v>120</v>
       </c>
-      <c r="AB6" s="4" t="s">
+      <c r="AC6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>58</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
         <v>43666</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>43725.743055555555</v>
       </c>
-      <c r="D7" s="3">
-        <v>24</v>
-      </c>
-      <c r="E7">
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>51</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-18</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>16</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>5</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>300</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>30</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>2</v>
       </c>
-      <c r="N7">
-        <v>0.9</v>
-      </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>1.4</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>6.9699499999999999</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>44.953440000000001</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <v>43666</v>
       </c>
-      <c r="T7" s="1">
+      <c r="U7" s="1">
         <v>43714</v>
       </c>
-      <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="3">
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="3">
         <v>0.1</v>
       </c>
-      <c r="Z7" s="3">
-        <v>0.9</v>
-      </c>
       <c r="AA7" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AB7" s="3">
         <v>120</v>
       </c>
-      <c r="AB7" s="4" t="s">
+      <c r="AC7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>58</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
         <v>44043</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>44352</v>
       </c>
-      <c r="D8" s="3">
-        <v>24</v>
-      </c>
-      <c r="E8">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>51</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-18</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>16</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>5</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>300</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>30</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>2</v>
       </c>
-      <c r="N8">
-        <v>0.9</v>
-      </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>1.4</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>6.9569460000000003</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>44.974710999999999</v>
       </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <v>44043</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1">
         <v>44087</v>
       </c>
-      <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="3">
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="3">
         <v>0.1</v>
       </c>
-      <c r="Z8" s="3">
-        <v>0.9</v>
-      </c>
       <c r="AA8" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AB8" s="3">
         <v>120</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>58</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
         <v>42552</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>42763.756944444445</v>
       </c>
-      <c r="D9" s="3">
-        <v>24</v>
-      </c>
-      <c r="E9">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>51</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-18</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>4</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>16</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>5</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>300</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>30</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>2</v>
       </c>
-      <c r="N9">
-        <v>0.9</v>
-      </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>1.4</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>8.6836400000000005</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>46.542700000000004</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <v>42552</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <v>42626</v>
       </c>
-      <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="3">
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="3">
         <v>0.1</v>
       </c>
-      <c r="Z9" s="3">
-        <v>0.9</v>
-      </c>
       <c r="AA9" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AB9" s="3">
         <v>120</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>48</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>58</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
         <v>42552</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>42686.833333333336</v>
       </c>
-      <c r="D10" s="3">
-        <v>24</v>
-      </c>
-      <c r="E10">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>51</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-18</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>4</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>16</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>5</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>300</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>30</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>2</v>
       </c>
-      <c r="N10">
-        <v>0.9</v>
-      </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>1.4</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>8.6831499999999995</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>46.542630000000003</v>
       </c>
-      <c r="S10" s="1">
+      <c r="T10" s="1">
         <v>42552</v>
       </c>
-      <c r="T10" s="1">
+      <c r="U10" s="1">
         <v>42631</v>
       </c>
-      <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="3">
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="3">
         <v>0.1</v>
       </c>
-      <c r="Z10" s="3">
-        <v>0.9</v>
-      </c>
       <c r="AA10" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AB10" s="3">
         <v>120</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>49</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>58</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
         <v>42552</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>42641.673611111109</v>
       </c>
-      <c r="D11" s="3">
-        <v>24</v>
-      </c>
-      <c r="E11">
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>51</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-18</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>16</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>5</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>300</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>30</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>2</v>
       </c>
-      <c r="N11">
-        <v>0.9</v>
-      </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>1.4</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>8.7298899999999993</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>46.548409999999997</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T11" s="1">
         <v>42552</v>
       </c>
-      <c r="T11" s="1">
+      <c r="U11" s="1">
         <v>42633</v>
       </c>
-      <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="3">
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="3">
         <v>0.1</v>
       </c>
-      <c r="Z11" s="3">
-        <v>0.9</v>
-      </c>
       <c r="AA11" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AB11" s="3">
         <v>120</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>50</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>58</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
         <v>42552</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>42647.628472222219</v>
       </c>
-      <c r="D12" s="3">
-        <v>24</v>
-      </c>
-      <c r="E12">
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>51</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-18</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>4</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>16</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>5</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>300</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>30</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>2</v>
       </c>
-      <c r="N12">
-        <v>0.9</v>
-      </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>1.4</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>8.6868200000000009</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>46.548490000000001</v>
       </c>
-      <c r="S12" s="1">
+      <c r="T12" s="1">
         <v>42552</v>
       </c>
-      <c r="T12" s="1">
+      <c r="U12" s="1">
         <v>42633</v>
       </c>
-      <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="3">
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="3">
         <v>0.1</v>
       </c>
-      <c r="Z12" s="3">
-        <v>0.9</v>
-      </c>
       <c r="AA12" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AB12" s="3">
         <v>120</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>51</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>58</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
         <v>43313</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>43412.243055555555</v>
       </c>
-      <c r="D13" s="3">
-        <v>24</v>
-      </c>
-      <c r="E13">
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>51</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-18</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>4</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>16</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>5</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>300</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>30</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>2</v>
       </c>
-      <c r="N13">
-        <v>0.9</v>
-      </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>1.4</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>8.7033740000000002</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>46.550142999999998</v>
       </c>
-      <c r="S13" s="1">
+      <c r="T13" s="1">
         <v>43313</v>
       </c>
-      <c r="T13" s="1">
+      <c r="U13" s="1">
         <v>43354</v>
       </c>
-      <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="3">
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="3">
         <v>0.1</v>
       </c>
-      <c r="Z13" s="3">
-        <v>0.9</v>
-      </c>
       <c r="AA13" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AB13" s="3">
         <v>120</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>53</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>58</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
         <v>43313</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>43361.690972222219</v>
       </c>
-      <c r="D14" s="3">
-        <v>24</v>
-      </c>
-      <c r="E14">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>51</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-18</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>4</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>16</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>5</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>300</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>30</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>2</v>
       </c>
-      <c r="N14">
-        <v>0.9</v>
-      </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>1.4</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>8.6909840000000003</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>46.553140999999997</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T14" s="1">
         <v>43313</v>
       </c>
-      <c r="T14" s="1">
+      <c r="U14" s="1">
         <v>43358</v>
       </c>
-      <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="3">
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="3">
         <v>0.1</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0.9</v>
-      </c>
       <c r="AA14" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AB14" s="3">
         <v>120</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>55</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>58</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
         <v>43678</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>43754.649305555555</v>
       </c>
-      <c r="D15" s="3">
-        <v>24</v>
-      </c>
-      <c r="E15">
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>51</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-18</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>4</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>16</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>5</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>300</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>30</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2</v>
       </c>
-      <c r="N15">
-        <v>0.9</v>
-      </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>1.4</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>8.6922119999999996</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>46.554926999999999</v>
       </c>
-      <c r="S15" s="1">
+      <c r="T15" s="1">
         <v>43678</v>
       </c>
-      <c r="T15" s="1">
+      <c r="U15" s="1">
         <v>43724</v>
       </c>
-      <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="3">
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="3">
         <v>0.1</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0.9</v>
-      </c>
       <c r="AA15" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AB15" s="3">
         <v>120</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>57</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>58</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>59</v>
       </c>
     </row>

--- a/data/gpr_settings.xlsx
+++ b/data/gpr_settings.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphael/Library/CloudStorage/Box-Box/Val-Piora-Wheatear/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD6C653-9904-C24D-B34F-95E555B6F248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F108B7-440F-674D-9874-947152490D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="500" windowWidth="27660" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="27660" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tracks" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
   <si>
     <t>Color</t>
   </si>
@@ -220,13 +221,46 @@
   </si>
   <si>
     <t>keep</t>
+  </si>
+  <si>
+    <t>#636EFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #EF553B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #00CC96</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #AB63FA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #FFA15A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #19D3F3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #FF6692</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #B6E880</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #FF97FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #FECB52</t>
+  </si>
+  <si>
+    <t>thr_as</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -379,6 +413,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -726,9 +766,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -775,7 +815,10 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
@@ -866,17 +909,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}" name="Table1" displayName="Table1" ref="A1:AH15" totalsRowShown="0">
-  <autoFilter ref="A1:AH15" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}" name="Table1" displayName="Table1" ref="A1:AI15" totalsRowShown="0">
+  <autoFilter ref="A1:AI15" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI15">
     <sortCondition ref="V1:V15"/>
   </sortState>
-  <tableColumns count="34">
-    <tableColumn id="3" xr3:uid="{0E08F938-60A9-C640-A060-C64653A1D0F0}" name="gdl_id" dataDxfId="14" dataCellStyle="Normal_Feuil1"/>
+  <tableColumns count="35">
+    <tableColumn id="3" xr3:uid="{0E08F938-60A9-C640-A060-C64653A1D0F0}" name="gdl_id" dataDxfId="15" dataCellStyle="Normal_Feuil1"/>
     <tableColumn id="12" xr3:uid="{A35DC4F6-C589-EF4B-8615-0E1885154BE5}" name="keep"/>
-    <tableColumn id="38" xr3:uid="{5F80A124-B607-6D47-A8B2-B6EBC16D0EC2}" name="crop_start" dataDxfId="13"/>
-    <tableColumn id="39" xr3:uid="{C4B8ED7B-88BE-D143-A9A5-6213689753CA}" name="crop_end" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{22680B6F-F907-FD43-BF6C-2E3789C9C356}" name="thr_dur" dataDxfId="11"/>
+    <tableColumn id="38" xr3:uid="{5F80A124-B607-6D47-A8B2-B6EBC16D0EC2}" name="crop_start" dataDxfId="14"/>
+    <tableColumn id="39" xr3:uid="{C4B8ED7B-88BE-D143-A9A5-6213689753CA}" name="crop_end" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{22680B6F-F907-FD43-BF6C-2E3789C9C356}" name="thr_dur" dataDxfId="12"/>
     <tableColumn id="43" xr3:uid="{0ACC25F8-5611-FA4F-B49C-6E30F1D95C08}" name="extent_N"/>
     <tableColumn id="44" xr3:uid="{7341665D-D68F-3E48-95CE-8E270ED9FA6A}" name="extent_W"/>
     <tableColumn id="45" xr3:uid="{18F1D038-2D60-FF49-8711-16897DCC1A1A}" name="extent_S"/>
@@ -887,20 +930,21 @@
     <tableColumn id="50" xr3:uid="{98646B4B-4B26-0A4C-A7C3-1140DBCABB7B}" name="prob_map_s"/>
     <tableColumn id="8" xr3:uid="{A429AD11-738F-D943-AE4F-5D30524D8A39}" name="prob_map_s_calib"/>
     <tableColumn id="51" xr3:uid="{AD7A8CAB-A777-7C4D-A6A2-601A4074FBB2}" name="prob_map_thr"/>
-    <tableColumn id="42" xr3:uid="{BF18370D-EF9D-424D-B4AE-3A176A692D5A}" name="shift_k" dataDxfId="10"/>
+    <tableColumn id="42" xr3:uid="{BF18370D-EF9D-424D-B4AE-3A176A692D5A}" name="shift_k" dataDxfId="11"/>
     <tableColumn id="11" xr3:uid="{960A618D-07F5-694F-BDED-EEB0A7C3BB9A}" name="kernel_adjust"/>
     <tableColumn id="9" xr3:uid="{0D248294-1CA3-E44D-A900-569DE950BA49}" name="calib_lon"/>
     <tableColumn id="10" xr3:uid="{50C46AB1-CB9A-B84C-B41F-D6DF90BD8412}" name="calib_lat"/>
-    <tableColumn id="19" xr3:uid="{F555DC9A-9393-234D-92AB-138553DAA03D}" name="calib_1_start" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{F0057B32-84F6-0D4E-B0D3-B8591BCF0A33}" name="calib_1_end" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{72C1CC5C-0A2A-3140-9A33-1BAC20CBDE1B}" name="calib_2_start" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{1E9B142A-92EB-D647-BB56-ADFB8F3B1DE9}" name="calib_2_end" dataDxfId="6"/>
-    <tableColumn id="40" xr3:uid="{ABB1AA27-3007-954E-BFD9-D15B5759E520}" name="calib_2_lon" dataDxfId="5"/>
-    <tableColumn id="41" xr3:uid="{5A6DF468-93CA-8E49-B529-24F965EC5A68}" name="calib_2_lat" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{C1C8E7B8-04FB-6241-9466-61A298BC202A}" name="prob_light_w" dataDxfId="3"/>
-    <tableColumn id="1" xr3:uid="{CA9C149A-C070-ED44-9095-795932D8BA41}" name="thr_prob_percentile" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{74B13C9B-EDD7-A24E-A7E5-146255BCE559}" name="thr_gs" dataDxfId="1"/>
-    <tableColumn id="32" xr3:uid="{8FB298A1-7B27-ED49-9E23-106210114304}" name="RingNo" dataDxfId="0"/>
+    <tableColumn id="19" xr3:uid="{F555DC9A-9393-234D-92AB-138553DAA03D}" name="calib_1_start" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{F0057B32-84F6-0D4E-B0D3-B8591BCF0A33}" name="calib_1_end" dataDxfId="9"/>
+    <tableColumn id="21" xr3:uid="{72C1CC5C-0A2A-3140-9A33-1BAC20CBDE1B}" name="calib_2_start" dataDxfId="8"/>
+    <tableColumn id="22" xr3:uid="{1E9B142A-92EB-D647-BB56-ADFB8F3B1DE9}" name="calib_2_end" dataDxfId="7"/>
+    <tableColumn id="40" xr3:uid="{ABB1AA27-3007-954E-BFD9-D15B5759E520}" name="calib_2_lon" dataDxfId="6"/>
+    <tableColumn id="41" xr3:uid="{5A6DF468-93CA-8E49-B529-24F965EC5A68}" name="calib_2_lat" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{C1C8E7B8-04FB-6241-9466-61A298BC202A}" name="prob_light_w" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{CA9C149A-C070-ED44-9095-795932D8BA41}" name="thr_prob_percentile" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{74B13C9B-EDD7-A24E-A7E5-146255BCE559}" name="thr_gs" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{F5622786-8DC7-034B-8E76-D5C6BEDFE866}" name="thr_as" dataDxfId="0"/>
+    <tableColumn id="32" xr3:uid="{8FB298A1-7B27-ED49-9E23-106210114304}" name="RingNo" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{437D6807-140D-EC48-A588-9CA0C70671A6}" name="scientific_name"/>
     <tableColumn id="5" xr3:uid="{E0EF373A-0600-B64D-81CD-63E6714931D7}" name="common_name"/>
     <tableColumn id="34" xr3:uid="{AAB4E28F-C2D5-A44D-A5CF-C6EA295E6EC5}" name="mass"/>
@@ -1208,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH15"/>
+  <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1226,19 +1270,19 @@
     <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.1640625" customWidth="1"/>
     <col min="23" max="23" width="14.1640625" customWidth="1"/>
-    <col min="24" max="28" width="17.33203125" customWidth="1"/>
-    <col min="30" max="30" width="17.33203125" customWidth="1"/>
-    <col min="31" max="31" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.5" customWidth="1"/>
-    <col min="38" max="38" width="16.33203125" customWidth="1"/>
-    <col min="44" max="46" width="15.1640625" customWidth="1"/>
-    <col min="47" max="47" width="14.5" customWidth="1"/>
-    <col min="48" max="48" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="29" width="17.33203125" customWidth="1"/>
+    <col min="31" max="31" width="17.33203125" customWidth="1"/>
+    <col min="32" max="32" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.5" customWidth="1"/>
+    <col min="39" max="39" width="16.33203125" customWidth="1"/>
+    <col min="45" max="47" width="15.1640625" customWidth="1"/>
+    <col min="48" max="48" width="14.5" customWidth="1"/>
+    <col min="49" max="49" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1324,25 +1368,28 @@
         <v>30</v>
       </c>
       <c r="AC1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD1" t="s">
         <v>2</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>4</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>5</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>1</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>6</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1355,7 +1402,7 @@
       <c r="D2" s="1">
         <v>44344</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2">
@@ -1365,13 +1412,13 @@
         <v>-18</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>16</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K2">
         <v>300</v>
@@ -1383,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="O2">
         <v>0.9</v>
@@ -1414,26 +1461,32 @@
       </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="AB2" s="3">
+      <c r="Z2" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="AB2" s="2">
         <v>120</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD2" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>59</v>
       </c>
+      <c r="AI2" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1446,7 +1499,7 @@
       <c r="D3" s="1">
         <v>44377</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3">
@@ -1456,13 +1509,13 @@
         <v>-18</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>16</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K3">
         <v>300</v>
@@ -1474,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="O3">
         <v>0.9</v>
@@ -1505,26 +1558,32 @@
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="AB3" s="3">
+      <c r="Z3" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="AB3" s="2">
         <v>120</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC3" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD3" t="s">
         <v>52</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>58</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>59</v>
       </c>
+      <c r="AI3" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1537,7 +1596,7 @@
       <c r="D4" s="1">
         <v>44370</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>0</v>
       </c>
       <c r="F4">
@@ -1547,13 +1606,13 @@
         <v>-18</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <v>16</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4">
         <v>300</v>
@@ -1565,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="O4">
         <v>0.9</v>
@@ -1596,26 +1655,32 @@
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="AB4" s="3">
+      <c r="Z4" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="AB4" s="2">
         <v>120</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC4" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD4" t="s">
         <v>56</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>58</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>59</v>
       </c>
+      <c r="AI4" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1628,7 +1693,7 @@
       <c r="D5" s="1">
         <v>43769.239583333336</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5">
@@ -1638,13 +1703,13 @@
         <v>-18</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5">
         <v>16</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K5">
         <v>300</v>
@@ -1656,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="O5">
         <v>0.9</v>
@@ -1681,27 +1746,32 @@
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="AB5" s="3">
+      <c r="Z5" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="AB5" s="2">
         <v>120</v>
       </c>
-      <c r="AC5" s="4" t="s">
+      <c r="AC5" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>58</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>59</v>
       </c>
-      <c r="AH5" s="2"/>
+      <c r="AI5" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1714,7 +1784,7 @@
       <c r="D6" s="1">
         <v>43750.222222222219</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>0</v>
       </c>
       <c r="F6">
@@ -1724,13 +1794,13 @@
         <v>-18</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <v>16</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K6">
         <v>300</v>
@@ -1742,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="O6">
         <v>0.9</v>
@@ -1767,26 +1837,29 @@
       </c>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
-      <c r="Z6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="AB6" s="3">
+      <c r="Z6" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="AB6" s="2">
         <v>120</v>
       </c>
-      <c r="AC6" s="4" t="s">
+      <c r="AC6" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>58</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1799,7 +1872,7 @@
       <c r="D7" s="1">
         <v>43725.743055555555</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>0</v>
       </c>
       <c r="F7">
@@ -1809,13 +1882,13 @@
         <v>-18</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <v>16</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K7">
         <v>300</v>
@@ -1827,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="O7">
         <v>0.9</v>
@@ -1852,26 +1925,29 @@
       </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="AB7" s="3">
+      <c r="Z7" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="AB7" s="2">
         <v>120</v>
       </c>
-      <c r="AC7" s="4" t="s">
+      <c r="AC7" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>58</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1884,7 +1960,7 @@
       <c r="D8" s="1">
         <v>44352</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8">
@@ -1894,13 +1970,13 @@
         <v>-18</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>16</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K8">
         <v>300</v>
@@ -1912,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="O8">
         <v>0.9</v>
@@ -1937,23 +2013,29 @@
       </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
-      <c r="Z8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="AB8" s="3">
+      <c r="Z8" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="AB8" s="2">
         <v>120</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AC8" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE8" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>59</v>
       </c>
+      <c r="AI8" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1966,7 +2048,7 @@
       <c r="D9" s="1">
         <v>42763.756944444445</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9">
@@ -1976,13 +2058,13 @@
         <v>-18</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I9">
         <v>16</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K9">
         <v>300</v>
@@ -1994,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="O9">
         <v>0.9</v>
@@ -2019,26 +2101,32 @@
       </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
-      <c r="Z9" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="AB9" s="3">
+      <c r="Z9" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="AB9" s="2">
         <v>120</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AC9" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD9" t="s">
         <v>48</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>58</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>59</v>
       </c>
+      <c r="AI9" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -2051,7 +2139,7 @@
       <c r="D10" s="1">
         <v>42686.833333333336</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="F10">
@@ -2061,13 +2149,13 @@
         <v>-18</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>16</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K10">
         <v>300</v>
@@ -2079,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="O10">
         <v>0.9</v>
@@ -2104,26 +2192,29 @@
       </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-      <c r="Z10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="AB10" s="3">
+      <c r="Z10" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="AB10" s="2">
         <v>120</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AC10" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD10" t="s">
         <v>49</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>58</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -2136,7 +2227,7 @@
       <c r="D11" s="1">
         <v>42641.673611111109</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>0</v>
       </c>
       <c r="F11">
@@ -2146,13 +2237,13 @@
         <v>-18</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I11">
         <v>16</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K11">
         <v>300</v>
@@ -2164,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="O11">
         <v>0.9</v>
@@ -2189,26 +2280,29 @@
       </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
-      <c r="Z11" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="AB11" s="3">
+      <c r="Z11" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="AB11" s="2">
         <v>120</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AC11" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD11" t="s">
         <v>50</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>58</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -2221,7 +2315,7 @@
       <c r="D12" s="1">
         <v>42647.628472222219</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12">
@@ -2231,13 +2325,13 @@
         <v>-18</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <v>16</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K12">
         <v>300</v>
@@ -2249,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="O12">
         <v>0.9</v>
@@ -2274,26 +2368,32 @@
       </c>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="AB12" s="3">
+      <c r="Z12" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="AB12" s="2">
         <v>120</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AC12" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD12" t="s">
         <v>51</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>58</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>59</v>
       </c>
+      <c r="AI12" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -2306,7 +2406,7 @@
       <c r="D13" s="1">
         <v>43412.243055555555</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="F13">
@@ -2316,13 +2416,13 @@
         <v>-18</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>16</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K13">
         <v>300</v>
@@ -2334,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="O13">
         <v>0.9</v>
@@ -2359,26 +2459,32 @@
       </c>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
-      <c r="Z13" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="AB13" s="3">
+      <c r="Z13" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="AB13" s="2">
         <v>120</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AC13" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD13" t="s">
         <v>53</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>58</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>59</v>
       </c>
+      <c r="AI13" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2391,7 +2497,7 @@
       <c r="D14" s="1">
         <v>43361.690972222219</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>0</v>
       </c>
       <c r="F14">
@@ -2401,13 +2507,13 @@
         <v>-18</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14">
         <v>16</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K14">
         <v>300</v>
@@ -2419,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="O14">
         <v>0.9</v>
@@ -2444,26 +2550,32 @@
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="AB14" s="3">
+      <c r="Z14" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="AB14" s="2">
         <v>120</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AC14" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD14" t="s">
         <v>55</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>58</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>59</v>
       </c>
+      <c r="AI14" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -2476,7 +2588,7 @@
       <c r="D15" s="1">
         <v>43754.649305555555</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>0</v>
       </c>
       <c r="F15">
@@ -2486,13 +2598,13 @@
         <v>-18</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I15">
         <v>16</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K15">
         <v>300</v>
@@ -2504,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="O15">
         <v>0.9</v>
@@ -2529,24 +2641,33 @@
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="AB15" s="3">
+      <c r="Z15" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="AB15" s="2">
         <v>120</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AC15" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD15" t="s">
         <v>57</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>58</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>59</v>
       </c>
+      <c r="AI15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="25:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="Y25" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -2556,4 +2677,18 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12388919-6341-D945-85F8-6E17CAE0EE82}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/gpr_settings.xlsx
+++ b/data/gpr_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphael/Library/CloudStorage/Box-Box/Val-Piora-Wheatear/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F108B7-440F-674D-9874-947152490D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3756790-F997-394C-8138-25272FDE8C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="27660" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tracks" sheetId="1" r:id="rId1"/>
@@ -241,9 +241,6 @@
     <t xml:space="preserve"> #19D3F3</t>
   </si>
   <si>
-    <t xml:space="preserve"> #FF6692</t>
-  </si>
-  <si>
     <t xml:space="preserve"> #B6E880</t>
   </si>
   <si>
@@ -254,6 +251,9 @@
   </si>
   <si>
     <t>thr_as</t>
+  </si>
+  <si>
+    <t>sta_id_winter</t>
   </si>
 </sst>
 </file>
@@ -817,10 +817,10 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -909,12 +909,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}" name="Table1" displayName="Table1" ref="A1:AI15" totalsRowShown="0">
-  <autoFilter ref="A1:AI15" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}" name="Table1" displayName="Table1" ref="A1:AJ15" totalsRowShown="0">
+  <autoFilter ref="A1:AJ15" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI15">
     <sortCondition ref="V1:V15"/>
   </sortState>
-  <tableColumns count="35">
+  <tableColumns count="36">
     <tableColumn id="3" xr3:uid="{0E08F938-60A9-C640-A060-C64653A1D0F0}" name="gdl_id" dataDxfId="15" dataCellStyle="Normal_Feuil1"/>
     <tableColumn id="12" xr3:uid="{A35DC4F6-C589-EF4B-8615-0E1885154BE5}" name="keep"/>
     <tableColumn id="38" xr3:uid="{5F80A124-B607-6D47-A8B2-B6EBC16D0EC2}" name="crop_start" dataDxfId="14"/>
@@ -943,13 +943,14 @@
     <tableColumn id="2" xr3:uid="{C1C8E7B8-04FB-6241-9466-61A298BC202A}" name="prob_light_w" dataDxfId="4"/>
     <tableColumn id="1" xr3:uid="{CA9C149A-C070-ED44-9095-795932D8BA41}" name="thr_prob_percentile" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{74B13C9B-EDD7-A24E-A7E5-146255BCE559}" name="thr_gs" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{F5622786-8DC7-034B-8E76-D5C6BEDFE866}" name="thr_as" dataDxfId="0"/>
-    <tableColumn id="32" xr3:uid="{8FB298A1-7B27-ED49-9E23-106210114304}" name="RingNo" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{F5622786-8DC7-034B-8E76-D5C6BEDFE866}" name="thr_as" dataDxfId="1"/>
+    <tableColumn id="32" xr3:uid="{8FB298A1-7B27-ED49-9E23-106210114304}" name="RingNo" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{437D6807-140D-EC48-A588-9CA0C70671A6}" name="scientific_name"/>
     <tableColumn id="5" xr3:uid="{E0EF373A-0600-B64D-81CD-63E6714931D7}" name="common_name"/>
     <tableColumn id="34" xr3:uid="{AAB4E28F-C2D5-A44D-A5CF-C6EA295E6EC5}" name="mass"/>
     <tableColumn id="33" xr3:uid="{FE34BCA4-242F-3342-9900-5E0B6676722C}" name="wing_span"/>
     <tableColumn id="27" xr3:uid="{EFA82C59-4775-1545-BF9E-65F94819FAF1}" name="Color"/>
+    <tableColumn id="14" xr3:uid="{B5B0259F-20A1-4E46-847B-C8AB9DEDFCD6}" name="sta_id_winter"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1252,10 +1253,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AB24" sqref="AB24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V8" sqref="V8:W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1275,6 +1277,7 @@
     <col min="32" max="32" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="20.5" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12.5" customWidth="1"/>
+    <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="16.33203125" customWidth="1"/>
     <col min="45" max="47" width="15.1640625" customWidth="1"/>
     <col min="48" max="48" width="14.5" customWidth="1"/>
@@ -1282,7 +1285,7 @@
     <col min="50" max="50" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>30</v>
       </c>
       <c r="AC1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD1" t="s">
         <v>2</v>
@@ -1388,8 +1391,11 @@
       <c r="AI1" t="s">
         <v>0</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" ht="20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1482,11 +1488,14 @@
       <c r="AF2" t="s">
         <v>59</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AI2" t="s">
         <v>63</v>
       </c>
+      <c r="AJ2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1582,8 +1591,11 @@
       <c r="AI3" t="s">
         <v>64</v>
       </c>
+      <c r="AJ3">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1679,13 +1691,16 @@
       <c r="AI4" t="s">
         <v>65</v>
       </c>
+      <c r="AJ4">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>43666</v>
@@ -1771,7 +1786,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1859,7 +1874,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1947,7 +1962,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -2010,6 +2025,12 @@
       </c>
       <c r="U8" s="1">
         <v>44087</v>
+      </c>
+      <c r="V8" s="1">
+        <v>43224</v>
+      </c>
+      <c r="W8" s="1">
+        <v>43412.243055555555</v>
       </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
@@ -2034,8 +2055,11 @@
       <c r="AI8" t="s">
         <v>67</v>
       </c>
+      <c r="AJ8">
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -2125,8 +2149,11 @@
       <c r="AI9" t="s">
         <v>68</v>
       </c>
+      <c r="AJ9">
+        <v>21</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -2214,7 +2241,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -2302,7 +2329,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -2389,11 +2416,8 @@
       <c r="AF12" t="s">
         <v>59</v>
       </c>
-      <c r="AI12" t="s">
-        <v>69</v>
-      </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -2457,6 +2481,8 @@
       <c r="U13" s="1">
         <v>43354</v>
       </c>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="2">
@@ -2481,10 +2507,13 @@
         <v>59</v>
       </c>
       <c r="AI13" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="AJ13">
+        <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2572,15 +2601,15 @@
         <v>59</v>
       </c>
       <c r="AI14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>44</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
         <v>43678</v>
@@ -2663,7 +2692,7 @@
         <v>59</v>
       </c>
       <c r="AI15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="25:25" ht="20" x14ac:dyDescent="0.25">
